--- a/docs/icare/obf-CarePlan.xlsx
+++ b/docs/icare/obf-CarePlan.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$80</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2637" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2775" uniqueCount="432">
   <si>
     <t>Path</t>
   </si>
@@ -239,7 +239,7 @@
     <t>sourcesystem</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/icare/StructureDefinition/obf-SourceSystem-extension}
+    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-SourceSystem-extension}
 </t>
   </si>
   <si>
@@ -427,20 +427,63 @@
     <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t>careplanbasedon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/icare/StructureDefinition/obf-CarePlanBasedOn-extension}
+    <t>basedon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-BasedOn-extension}
 </t>
   </si>
   <si>
-    <t>The Care Plan that this Care Plan is based on, if any.</t>
+    <t>The proposal, order, or plan that is partly or wholly fulfilled by this item.</t>
+  </si>
+  <si>
+    <t>CarePlan.extension.id</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>CarePlan.extension.extension</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>CarePlan.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition should be version specific.  This will ideally be the URI for the Resource Profile defining the extension, with the code for the extension after a #.</t>
+  </si>
+  <si>
+    <t>http://icaredata.org/icare/StructureDefinition/obf-BasedOn-extension</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>CarePlan.extension.valueReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://icaredata.org/icare/StructureDefinition/obf-CarePlan)
+</t>
+  </si>
+  <si>
+    <t>CarePlan: Describes how one or more practitioners intend to deliver care for a particular patient, group or community for a period of time, possibly limited to care for a specific condition or set of conditions</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
   </si>
   <si>
     <t>statementdatetime</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/icare/StructureDefinition/obf-StatementDateTime-extension}
+    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-StatementDateTime-extension}
 </t>
   </si>
   <si>
@@ -450,7 +493,7 @@
     <t>reasoncode</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/icare/StructureDefinition/obf-ReasonCode-extension}
+    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-ReasonCode-extension}
 </t>
   </si>
   <si>
@@ -461,7 +504,7 @@
     <t>careplanreplaces</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/icare/StructureDefinition/obf-CarePlanReplaces-extension}
+    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-CarePlanReplaces-extension}
 </t>
   </si>
   <si>
@@ -471,7 +514,7 @@
     <t>careplanpartof</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/icare/StructureDefinition/obf-CarePlanPartOf-extension}
+    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-CarePlanPartOf-extension}
 </t>
   </si>
   <si>
@@ -481,7 +524,7 @@
     <t>requestintent</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/icare/StructureDefinition/obf-RequestIntent-extension}
+    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-RequestIntent-extension}
 </t>
   </si>
   <si>
@@ -491,7 +534,7 @@
     <t>title</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://mcodeinitiative.org/us/icare/StructureDefinition/obf-datatype-Title-extension}
+    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-datatype-Title-extension}
 </t>
   </si>
   <si>
@@ -1470,7 +1513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM76"/>
+  <dimension ref="A1:AM80"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1489,7 +1532,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="65.33203125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="184.53125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3486,11 +3529,9 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="B19" t="s" s="2">
         <v>134</v>
       </c>
+      <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
         <v>43</v>
       </c>
@@ -3511,11 +3552,13 @@
         <v>43</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="K19" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>60</v>
+      </c>
       <c r="L19" t="s" s="2">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3539,7 +3582,7 @@
         <v>43</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="W19" t="s" s="2">
         <v>43</v>
@@ -3566,13 +3609,13 @@
         <v>43</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>43</v>
@@ -3584,7 +3627,7 @@
         <v>43</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>43</v>
@@ -3595,20 +3638,18 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>43</v>
@@ -3620,13 +3661,17 @@
         <v>43</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="K20" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>66</v>
+      </c>
       <c r="L20" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="M20" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>68</v>
+      </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>43</v>
@@ -3648,7 +3693,7 @@
         <v>43</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="W20" t="s" s="2">
         <v>43</v>
@@ -3675,7 +3720,7 @@
         <v>43</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3693,7 +3738,7 @@
         <v>43</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>43</v>
@@ -3704,20 +3749,18 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
         <v>43</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>43</v>
@@ -3729,20 +3772,24 @@
         <v>43</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="K21" s="2"/>
-      <c r="L21" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>43</v>
@@ -3757,7 +3804,7 @@
         <v>43</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="W21" t="s" s="2">
         <v>43</v>
@@ -3784,13 +3831,13 @@
         <v>43</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>43</v>
@@ -3802,7 +3849,7 @@
         <v>43</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>43</v>
@@ -3813,20 +3860,18 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
         <v>43</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>43</v>
@@ -3838,11 +3883,13 @@
         <v>43</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="K22" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="L22" t="s" s="2">
-        <v>145</v>
+        <v>45</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3866,7 +3913,7 @@
         <v>43</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="W22" t="s" s="2">
         <v>43</v>
@@ -3893,13 +3940,13 @@
         <v>43</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>43</v>
@@ -3911,7 +3958,7 @@
         <v>43</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>43</v>
@@ -3925,14 +3972,14 @@
         <v>129</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>43</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>49</v>
@@ -3947,11 +3994,11 @@
         <v>43</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4034,7 +4081,7 @@
         <v>129</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>43</v>
@@ -4044,7 +4091,7 @@
         <v>41</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>43</v>
@@ -4056,11 +4103,11 @@
         <v>43</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4140,11 +4187,13 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="B25" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="C25" t="s" s="2">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4157,23 +4206,19 @@
         <v>43</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>43</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="K25" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="K25" s="2"/>
       <c r="L25" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>68</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>43</v>
@@ -4222,7 +4267,7 @@
         <v>43</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -4240,7 +4285,7 @@
         <v>43</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>128</v>
+        <v>43</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>43</v>
@@ -4251,9 +4296,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="C26" t="s" s="2">
         <v>43</v>
       </c>
@@ -4271,21 +4318,17 @@
         <v>43</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="K26" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="K26" s="2"/>
       <c r="L26" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M26" s="2"/>
-      <c r="N26" t="s" s="2">
-        <v>159</v>
-      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>43</v>
       </c>
@@ -4333,7 +4376,7 @@
         <v>43</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4351,20 +4394,22 @@
         <v>43</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" hidden="true">
+      <c r="A27" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AL26" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>43</v>
       </c>
@@ -4376,7 +4421,7 @@
         <v>49</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>43</v>
@@ -4385,18 +4430,14 @@
         <v>43</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="K27" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="K27" s="2"/>
       <c r="L27" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M27" s="2"/>
-      <c r="N27" t="s" s="2">
-        <v>166</v>
-      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>43</v>
       </c>
@@ -4444,13 +4485,13 @@
         <v>43</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>43</v>
@@ -4459,55 +4500,53 @@
         <v>43</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>162</v>
+        <v>43</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>167</v>
+        <v>43</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>168</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="B28" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="C28" t="s" s="2">
         <v>43</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>43</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="K28" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="K28" s="2"/>
       <c r="L28" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="M28" s="2"/>
-      <c r="N28" t="s" s="2">
-        <v>171</v>
-      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>43</v>
       </c>
@@ -4531,11 +4570,13 @@
         <v>41</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="X28" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y28" t="s" s="2">
-        <v>172</v>
+        <v>43</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>43</v>
@@ -4553,13 +4594,13 @@
         <v>43</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>43</v>
@@ -4568,53 +4609,53 @@
         <v>43</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>169</v>
+        <v>43</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>173</v>
+        <v>43</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>174</v>
+        <v>43</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>175</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>177</v>
+        <v>65</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>180</v>
+        <v>68</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4664,13 +4705,13 @@
         <v>43</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>43</v>
@@ -4682,18 +4723,18 @@
         <v>43</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>181</v>
+        <v>128</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>182</v>
+        <v>43</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>183</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4704,7 +4745,7 @@
         <v>41</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>43</v>
@@ -4716,19 +4757,17 @@
         <v>50</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>188</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>43</v>
@@ -4777,13 +4816,13 @@
         <v>43</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>43</v>
@@ -4795,18 +4834,18 @@
         <v>43</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4814,33 +4853,33 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>43</v>
       </c>
@@ -4888,13 +4927,13 @@
         <v>43</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>43</v>
@@ -4903,21 +4942,21 @@
         <v>43</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>43</v>
+        <v>176</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>43</v>
+        <v>181</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>43</v>
+        <v>182</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4925,32 +4964,32 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>198</v>
+        <v>107</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>43</v>
@@ -4975,13 +5014,11 @@
         <v>41</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="X32" s="2"/>
       <c r="Y32" t="s" s="2">
-        <v>43</v>
+        <v>186</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>43</v>
@@ -4999,10 +5036,10 @@
         <v>43</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>49</v>
@@ -5014,21 +5051,21 @@
         <v>43</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>43</v>
+        <v>183</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>43</v>
+        <v>188</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5036,35 +5073,33 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F33" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="F33" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="G33" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I33" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H33" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>43</v>
-      </c>
       <c r="J33" t="s" s="2">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>43</v>
       </c>
@@ -5088,13 +5123,13 @@
         <v>41</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>210</v>
+        <v>43</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>211</v>
+        <v>43</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>43</v>
@@ -5112,36 +5147,36 @@
         <v>43</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>212</v>
+        <v>43</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>204</v>
+        <v>43</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>43</v>
+        <v>195</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>43</v>
+        <v>196</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>43</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5164,17 +5199,19 @@
         <v>50</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="N34" t="s" s="2">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>43</v>
@@ -5223,7 +5260,7 @@
         <v>43</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5241,18 +5278,18 @@
         <v>43</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>43</v>
+        <v>204</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>43</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5263,7 +5300,7 @@
         <v>41</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>43</v>
@@ -5275,18 +5312,18 @@
         <v>50</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>43</v>
       </c>
@@ -5334,7 +5371,7 @@
         <v>43</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5352,18 +5389,18 @@
         <v>43</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>223</v>
+        <v>43</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>224</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5374,7 +5411,7 @@
         <v>41</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>43</v>
@@ -5383,22 +5420,20 @@
         <v>43</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>43</v>
@@ -5447,13 +5482,13 @@
         <v>43</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>43</v>
@@ -5465,18 +5500,18 @@
         <v>43</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>43</v>
+        <v>216</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>43</v>
+        <v>217</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5484,13 +5519,13 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>43</v>
@@ -5499,18 +5534,20 @@
         <v>43</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>43</v>
       </c>
@@ -5534,13 +5571,13 @@
         <v>41</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>43</v>
+        <v>224</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>43</v>
+        <v>225</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>43</v>
@@ -5558,7 +5595,7 @@
         <v>43</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5570,10 +5607,10 @@
         <v>43</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>43</v>
+        <v>226</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>43</v>
+        <v>218</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>43</v>
@@ -5587,7 +5624,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5607,19 +5644,21 @@
         <v>43</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>51</v>
+        <v>228</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>60</v>
+        <v>229</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>61</v>
+        <v>230</v>
       </c>
       <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+      <c r="N38" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>43</v>
       </c>
@@ -5667,7 +5706,7 @@
         <v>43</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5685,7 +5724,7 @@
         <v>43</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>43</v>
@@ -5696,11 +5735,11 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5716,21 +5755,21 @@
         <v>43</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>65</v>
+        <v>233</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>66</v>
+        <v>234</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>43</v>
       </c>
@@ -5778,7 +5817,7 @@
         <v>43</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5796,22 +5835,22 @@
         <v>43</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>62</v>
+        <v>237</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>43</v>
+        <v>238</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>239</v>
+        <v>43</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5824,24 +5863,26 @@
         <v>43</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>43</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>65</v>
+        <v>240</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>153</v>
+        <v>241</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>43</v>
       </c>
@@ -5889,7 +5930,7 @@
         <v>43</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5907,7 +5948,7 @@
         <v>43</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>128</v>
+        <v>43</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>43</v>
@@ -5918,7 +5959,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5929,7 +5970,7 @@
         <v>41</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>43</v>
@@ -5941,16 +5982,16 @@
         <v>43</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>107</v>
+        <v>246</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -5976,37 +6017,37 @@
         <v>41</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="X41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE41" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="Y41" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>241</v>
-      </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>43</v>
@@ -6029,7 +6070,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6037,7 +6078,7 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>49</v>
@@ -6052,13 +6093,13 @@
         <v>43</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>248</v>
+        <v>51</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>249</v>
+        <v>60</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>250</v>
+        <v>61</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6109,10 +6150,10 @@
         <v>43</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>49</v>
@@ -6127,7 +6168,7 @@
         <v>43</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>43</v>
@@ -6142,7 +6183,7 @@
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6161,18 +6202,18 @@
         <v>43</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>232</v>
+        <v>65</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>252</v>
+        <v>66</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>43</v>
       </c>
@@ -6238,49 +6279,51 @@
         <v>43</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>255</v>
+        <v>62</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>256</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>43</v>
+        <v>253</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>43</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>60</v>
+        <v>167</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>68</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>43</v>
@@ -6329,13 +6372,13 @@
         <v>43</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>43</v>
@@ -6347,7 +6390,7 @@
         <v>43</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>43</v>
@@ -6358,18 +6401,18 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>43</v>
@@ -6381,16 +6424,16 @@
         <v>43</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>66</v>
+        <v>256</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>67</v>
+        <v>257</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>68</v>
+        <v>258</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6416,13 +6459,13 @@
         <v>41</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>43</v>
+        <v>259</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>43</v>
+        <v>260</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>43</v>
@@ -6440,13 +6483,13 @@
         <v>43</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>43</v>
@@ -6458,7 +6501,7 @@
         <v>43</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>43</v>
@@ -6469,40 +6512,38 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>239</v>
+        <v>43</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>43</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>65</v>
+        <v>262</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>153</v>
+        <v>263</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>68</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>43</v>
@@ -6551,13 +6592,13 @@
         <v>43</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>43</v>
@@ -6569,7 +6610,7 @@
         <v>43</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>128</v>
+        <v>43</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>43</v>
@@ -6580,18 +6621,18 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>43</v>
@@ -6603,18 +6644,18 @@
         <v>43</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>43</v>
       </c>
@@ -6638,13 +6679,13 @@
         <v>41</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>262</v>
+        <v>43</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>264</v>
+        <v>43</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>43</v>
@@ -6662,13 +6703,13 @@
         <v>43</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>43</v>
@@ -6680,18 +6721,18 @@
         <v>43</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6714,17 +6755,15 @@
         <v>43</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>268</v>
+        <v>51</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>269</v>
+        <v>60</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>43</v>
@@ -6773,7 +6812,7 @@
         <v>43</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -6791,22 +6830,22 @@
         <v>43</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>272</v>
+        <v>62</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>273</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -6825,20 +6864,18 @@
         <v>43</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>275</v>
+        <v>65</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>276</v>
+        <v>66</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>277</v>
+        <v>67</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>43</v>
       </c>
@@ -6886,7 +6923,7 @@
         <v>43</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -6904,22 +6941,22 @@
         <v>43</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>280</v>
+        <v>62</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>281</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>43</v>
+        <v>253</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -6932,24 +6969,24 @@
         <v>43</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>232</v>
+        <v>65</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>283</v>
+        <v>167</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>43</v>
       </c>
@@ -6997,7 +7034,7 @@
         <v>43</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -7009,13 +7046,13 @@
         <v>43</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>286</v>
+        <v>43</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>287</v>
+        <v>128</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>43</v>
@@ -7026,7 +7063,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7049,15 +7086,17 @@
         <v>43</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>51</v>
+        <v>219</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>60</v>
+        <v>275</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>43</v>
@@ -7082,13 +7121,13 @@
         <v>41</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>43</v>
+        <v>276</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>43</v>
+        <v>278</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>43</v>
@@ -7106,7 +7145,7 @@
         <v>43</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -7124,29 +7163,29 @@
         <v>43</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>62</v>
+        <v>279</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>43</v>
+        <v>280</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>43</v>
@@ -7158,16 +7197,16 @@
         <v>43</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>65</v>
+        <v>282</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>66</v>
+        <v>283</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>67</v>
+        <v>284</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>68</v>
+        <v>285</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7217,13 +7256,13 @@
         <v>43</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>43</v>
@@ -7235,22 +7274,22 @@
         <v>43</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>62</v>
+        <v>286</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>43</v>
+        <v>287</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>239</v>
+        <v>43</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7263,24 +7302,26 @@
         <v>43</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>43</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>65</v>
+        <v>289</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>153</v>
+        <v>290</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>240</v>
+        <v>291</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>43</v>
       </c>
@@ -7328,7 +7369,7 @@
         <v>43</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -7346,18 +7387,18 @@
         <v>43</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>128</v>
+        <v>294</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>43</v>
+        <v>295</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7380,17 +7421,17 @@
         <v>43</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>43</v>
@@ -7439,7 +7480,7 @@
         <v>43</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
@@ -7451,13 +7492,13 @@
         <v>43</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>43</v>
+        <v>300</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>43</v>
@@ -7468,7 +7509,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7479,7 +7520,7 @@
         <v>41</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>43</v>
@@ -7491,20 +7532,16 @@
         <v>43</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>297</v>
+        <v>51</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>298</v>
+        <v>60</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>43</v>
       </c>
@@ -7552,13 +7589,13 @@
         <v>43</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>43</v>
@@ -7570,29 +7607,29 @@
         <v>43</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>302</v>
+        <v>62</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>303</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>43</v>
@@ -7604,18 +7641,18 @@
         <v>43</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>305</v>
+        <v>65</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>306</v>
+        <v>66</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="M56" s="2"/>
-      <c r="N56" t="s" s="2">
-        <v>308</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>43</v>
       </c>
@@ -7663,16 +7700,16 @@
         <v>43</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>309</v>
+        <v>43</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>43</v>
@@ -7681,7 +7718,7 @@
         <v>43</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>287</v>
+        <v>62</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>43</v>
@@ -7692,41 +7729,41 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>43</v>
+        <v>253</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>43</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>232</v>
+        <v>65</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>311</v>
+        <v>167</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>43</v>
       </c>
@@ -7774,16 +7811,16 @@
         <v>43</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>309</v>
+        <v>43</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>43</v>
@@ -7792,7 +7829,7 @@
         <v>43</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>314</v>
+        <v>128</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>43</v>
@@ -7803,7 +7840,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7814,7 +7851,7 @@
         <v>41</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>43</v>
@@ -7826,16 +7863,18 @@
         <v>43</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>51</v>
+        <v>240</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>60</v>
+        <v>306</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>61</v>
+        <v>307</v>
       </c>
       <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+      <c r="N58" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>43</v>
       </c>
@@ -7883,13 +7922,13 @@
         <v>43</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>43</v>
@@ -7901,7 +7940,7 @@
         <v>43</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>62</v>
+        <v>309</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>43</v>
@@ -7912,11 +7951,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -7935,18 +7974,20 @@
         <v>43</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>65</v>
+        <v>311</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>66</v>
+        <v>312</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>67</v>
+        <v>313</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>315</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>43</v>
       </c>
@@ -7994,7 +8035,7 @@
         <v>43</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -8012,52 +8053,52 @@
         <v>43</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>62</v>
+        <v>316</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>43</v>
+        <v>317</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>239</v>
+        <v>43</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>43</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>65</v>
+        <v>319</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>153</v>
+        <v>320</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>43</v>
       </c>
@@ -8105,16 +8146,16 @@
         <v>43</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>43</v>
+        <v>323</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>43</v>
@@ -8123,7 +8164,7 @@
         <v>43</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>128</v>
+        <v>301</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>43</v>
@@ -8134,7 +8175,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8157,17 +8198,17 @@
         <v>43</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>43</v>
@@ -8192,13 +8233,13 @@
         <v>41</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>320</v>
+        <v>43</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>322</v>
+        <v>43</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>43</v>
@@ -8216,7 +8257,7 @@
         <v>43</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
@@ -8225,7 +8266,7 @@
         <v>49</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>43</v>
+        <v>323</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>43</v>
@@ -8234,7 +8275,7 @@
         <v>43</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>43</v>
@@ -8245,7 +8286,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8268,20 +8309,16 @@
         <v>43</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>205</v>
+        <v>51</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>325</v>
+        <v>60</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>43</v>
       </c>
@@ -8305,31 +8342,31 @@
         <v>41</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="X62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE62" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
@@ -8347,22 +8384,22 @@
         <v>43</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>331</v>
+        <v>62</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>332</v>
+        <v>43</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8381,16 +8418,16 @@
         <v>43</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>205</v>
+        <v>65</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>334</v>
+        <v>66</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>335</v>
+        <v>67</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>336</v>
+        <v>68</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8416,13 +8453,13 @@
         <v>41</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>337</v>
+        <v>43</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>338</v>
+        <v>43</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>43</v>
@@ -8440,7 +8477,7 @@
         <v>43</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
@@ -8458,7 +8495,7 @@
         <v>43</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>43</v>
@@ -8469,11 +8506,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>43</v>
+        <v>253</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -8486,22 +8523,22 @@
         <v>43</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>43</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>340</v>
+        <v>65</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>341</v>
+        <v>167</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>342</v>
+        <v>254</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>343</v>
+        <v>68</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8551,7 +8588,7 @@
         <v>43</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
@@ -8569,7 +8606,7 @@
         <v>43</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>43</v>
@@ -8580,7 +8617,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8591,7 +8628,7 @@
         <v>41</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>43</v>
@@ -8603,17 +8640,17 @@
         <v>43</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>275</v>
+        <v>219</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>43</v>
@@ -8638,13 +8675,13 @@
         <v>41</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>43</v>
+        <v>334</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>43</v>
+        <v>336</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>43</v>
@@ -8662,13 +8699,13 @@
         <v>43</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>43</v>
@@ -8680,7 +8717,7 @@
         <v>43</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>280</v>
+        <v>337</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>43</v>
@@ -8691,7 +8728,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8708,25 +8745,25 @@
         <v>43</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>43</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>107</v>
+        <v>219</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>43</v>
@@ -8751,13 +8788,13 @@
         <v>41</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>43</v>
@@ -8775,7 +8812,7 @@
         <v>43</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
@@ -8793,18 +8830,18 @@
         <v>43</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>356</v>
+        <v>346</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8815,7 +8852,7 @@
         <v>41</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>43</v>
@@ -8827,16 +8864,16 @@
         <v>43</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -8865,10 +8902,10 @@
         <v>100</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>43</v>
@@ -8886,13 +8923,13 @@
         <v>43</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>43</v>
@@ -8915,7 +8952,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8923,33 +8960,33 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>43</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M68" s="2"/>
-      <c r="N68" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>43</v>
       </c>
@@ -8997,13 +9034,13 @@
         <v>43</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>43</v>
@@ -9015,7 +9052,7 @@
         <v>43</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>368</v>
+        <v>43</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>43</v>
@@ -9026,7 +9063,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9037,7 +9074,7 @@
         <v>41</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>43</v>
@@ -9049,17 +9086,17 @@
         <v>43</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>370</v>
+        <v>289</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>43</v>
@@ -9108,13 +9145,13 @@
         <v>43</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>43</v>
@@ -9126,18 +9163,18 @@
         <v>43</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>190</v>
+        <v>294</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>374</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9154,25 +9191,25 @@
         <v>43</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>43</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>376</v>
+        <v>107</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>43</v>
@@ -9197,13 +9234,13 @@
         <v>41</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>43</v>
+        <v>367</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>43</v>
+        <v>368</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>43</v>
@@ -9221,7 +9258,7 @@
         <v>43</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
@@ -9239,18 +9276,18 @@
         <v>43</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>382</v>
+        <v>370</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9261,7 +9298,7 @@
         <v>41</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>43</v>
@@ -9273,20 +9310,18 @@
         <v>43</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>384</v>
+        <v>219</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>43</v>
       </c>
@@ -9310,13 +9345,13 @@
         <v>41</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>43</v>
+        <v>375</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>43</v>
+        <v>376</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>43</v>
@@ -9334,13 +9369,13 @@
         <v>43</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>43</v>
@@ -9352,18 +9387,18 @@
         <v>43</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>255</v>
+        <v>43</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>388</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9371,7 +9406,7 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F72" t="s" s="2">
         <v>49</v>
@@ -9380,22 +9415,24 @@
         <v>43</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>43</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
+      <c r="N72" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="O72" t="s" s="2">
         <v>43</v>
       </c>
@@ -9419,13 +9456,13 @@
         <v>41</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>393</v>
+        <v>43</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>394</v>
+        <v>43</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>43</v>
@@ -9443,10 +9480,10 @@
         <v>43</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>49</v>
@@ -9461,22 +9498,22 @@
         <v>43</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>396</v>
+        <v>43</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>398</v>
+        <v>43</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -9495,17 +9532,17 @@
         <v>43</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" t="s" s="2">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>43</v>
@@ -9554,7 +9591,7 @@
         <v>43</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
@@ -9572,18 +9609,18 @@
         <v>43</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>403</v>
+        <v>204</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>404</v>
+        <v>388</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9606,16 +9643,20 @@
         <v>43</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="O74" t="s" s="2">
         <v>43</v>
       </c>
@@ -9663,7 +9704,7 @@
         <v>43</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
@@ -9681,18 +9722,18 @@
         <v>43</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>409</v>
+        <v>396</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9703,7 +9744,7 @@
         <v>41</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>43</v>
@@ -9715,16 +9756,20 @@
         <v>43</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>214</v>
+        <v>398</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>43</v>
       </c>
@@ -9772,13 +9817,13 @@
         <v>43</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>43</v>
@@ -9790,18 +9835,18 @@
         <v>43</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>413</v>
+        <v>269</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>303</v>
+        <v>402</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9824,18 +9869,16 @@
         <v>43</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>297</v>
+        <v>404</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="M76" s="2"/>
-      <c r="N76" t="s" s="2">
-        <v>417</v>
-      </c>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>43</v>
       </c>
@@ -9859,13 +9902,13 @@
         <v>41</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>43</v>
+        <v>407</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>43</v>
+        <v>408</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>43</v>
@@ -9883,7 +9926,7 @@
         <v>43</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>41</v>
@@ -9901,17 +9944,457 @@
         <v>43</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>302</v>
+        <v>409</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>303</v>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>317</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM76">
+  <autoFilter ref="A1:AM80">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9921,7 +10404,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI75">
+  <conditionalFormatting sqref="A2:AI79">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/icare/obf-CarePlan.xlsx
+++ b/docs/icare/obf-CarePlan.xlsx
@@ -239,7 +239,7 @@
     <t>sourcesystem</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-SourceSystem-extension}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-SourceSystem-extension}
 </t>
   </si>
   <si>
@@ -430,7 +430,7 @@
     <t>basedon</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-BasedOn-extension}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-BasedOn-extension}
 </t>
   </si>
   <si>
@@ -461,7 +461,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition should be version specific.  This will ideally be the URI for the Resource Profile defining the extension, with the code for the extension after a #.</t>
   </si>
   <si>
-    <t>http://icaredata.org/icare/StructureDefinition/obf-BasedOn-extension</t>
+    <t>http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-BasedOn-extension</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -470,7 +470,7 @@
     <t>CarePlan.extension.valueReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://icaredata.org/icare/StructureDefinition/obf-CarePlan)
+    <t xml:space="preserve">Reference(http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-CarePlan)
 </t>
   </si>
   <si>
@@ -483,7 +483,7 @@
     <t>statementdatetime</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-StatementDateTime-extension}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-StatementDateTime-extension}
 </t>
   </si>
   <si>
@@ -493,7 +493,7 @@
     <t>reasoncode</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-ReasonCode-extension}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-ReasonCode-extension}
 </t>
   </si>
   <si>
@@ -504,7 +504,7 @@
     <t>careplanreplaces</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-CarePlanReplaces-extension}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-CarePlanReplaces-extension}
 </t>
   </si>
   <si>
@@ -514,7 +514,7 @@
     <t>careplanpartof</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-CarePlanPartOf-extension}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-CarePlanPartOf-extension}
 </t>
   </si>
   <si>
@@ -524,7 +524,7 @@
     <t>requestintent</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-RequestIntent-extension}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-RequestIntent-extension}
 </t>
   </si>
   <si>
@@ -534,7 +534,7 @@
     <t>title</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://icaredata.org/icare/StructureDefinition/obf-datatype-Title-extension}
+    <t xml:space="preserve">Extension {http://mcodeinitiative.org/codex/us/icare/StructureDefinition/obf-datatype-Title-extension}
 </t>
   </si>
   <si>
